--- a/_PELIC_labels_TOC_contents_current.xlsx
+++ b/_PELIC_labels_TOC_contents_current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\corpora\221008_1557_PELIC1.1\PELIC_fut_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\LCR_PELIC_future_v01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC018482-6D5E-42FB-883D-5E3EF705FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62833818-AF93-4FB9-B30B-B0CB1776D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-30" windowWidth="25455" windowHeight="21000" xr2:uid="{1AB8A555-44B4-4FE6-9209-AC25EAC42418}"/>
+    <workbookView xWindow="21255" yWindow="315" windowWidth="30345" windowHeight="20835" xr2:uid="{1AB8A555-44B4-4FE6-9209-AC25EAC42418}"/>
   </bookViews>
   <sheets>
     <sheet name="PELIC final column names" sheetId="19" r:id="rId1"/>
@@ -69,6 +69,30 @@
           </rPr>
           <t xml:space="preserve">
 if I want to use this as continuous, I need to convert it to a number value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{D19BA99B-0359-4CA7-A790-BC25AB43FC55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There are 6,000 of these… probably too much to run any kind of test on (for this project); many are multi-line instructions.</t>
         </r>
       </text>
     </comment>
@@ -1703,7 +1727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,6 +1857,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1991,7 +2028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2177,23 +2214,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2202,26 +2233,10 @@
   </cellStyles>
   <dxfs count="110">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2245,10 +2260,53 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2270,10 +2328,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2295,10 +2361,51 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2320,10 +2427,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2345,85 +2460,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2445,10 +2493,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2470,10 +2526,857 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2573,99 +3476,351 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color rgb="FF7030A0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3183,397 +4338,12 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3595,53 +4365,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3663,18 +4390,110 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3696,18 +4515,60 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3729,213 +4590,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3944,720 +4599,96 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF7030A0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF7030A0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF7030A0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4681,38 +4712,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{981BC75D-E4B6-469A-B7B2-70B9D0812112}" name="Table9" displayName="Table9" ref="A1:I34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{981BC75D-E4B6-469A-B7B2-70B9D0812112}" name="Table9" displayName="Table9" ref="A1:I34" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A1:I34" xr:uid="{981BC75D-E4B6-469A-B7B2-70B9D0812112}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1E280431-78CB-4474-9581-E665437F92A2}" name="d#" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AA290525-F240-4984-897F-BD9626FA48FF}" name="O_source" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BB9B7CBA-DBBC-4DF3-9056-BE6C744D85C3}" name="nCOL" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D7094073-E675-44BF-B7C5-3728DE76C503}" name="revCOLname" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{04EDFC38-8AEC-411F-8E0F-4A6AB546CFDA}" name="variable_class" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C41329C2-CF5C-4D88-BDC8-592135D58A08}" name="variable_type" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8096DE63-BEC1-48F7-91F4-51986520FAD4}" name="code explained" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7E4F821E-9E06-457F-92DC-5683F47986E5}" name="Description" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E99A0C6-C408-4270-BA08-5579A788AB26}" name="category1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E280431-78CB-4474-9581-E665437F92A2}" name="d#" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{AA290525-F240-4984-897F-BD9626FA48FF}" name="O_source" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{BB9B7CBA-DBBC-4DF3-9056-BE6C744D85C3}" name="nCOL" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{D7094073-E675-44BF-B7C5-3728DE76C503}" name="revCOLname" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{04EDFC38-8AEC-411F-8E0F-4A6AB546CFDA}" name="variable_class" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{C41329C2-CF5C-4D88-BDC8-592135D58A08}" name="variable_type" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{8096DE63-BEC1-48F7-91F4-51986520FAD4}" name="code explained" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{7E4F821E-9E06-457F-92DC-5683F47986E5}" name="Description" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{9E99A0C6-C408-4270-BA08-5579A788AB26}" name="category1" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3562DD2-FADC-4C18-AE29-F7F132576760}" name="Table43" displayName="Table43" ref="A2:L37" totalsRowShown="0" headerRowDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3562DD2-FADC-4C18-AE29-F7F132576760}" name="Table43" displayName="Table43" ref="A2:L37" totalsRowShown="0" headerRowDxfId="86" tableBorderDxfId="85">
   <autoFilter ref="A2:L37" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C0354058-503E-473E-86BA-60DBA86960E9}" name="col" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{13CD49C1-D450-4F95-B72C-5DA387FF12ED}" name="d#" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{AC76382C-DA6F-426D-BE2C-46FB26599C14}" name="O_source" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{38E9FAFF-89BD-497C-81C1-5D030A3F2BFC}" name="oCOL" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{D9B67B41-A299-4A2D-9C97-438AA472D1F1}" name="nCOL" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{23936385-C3BB-4E25-B0BB-6C7FF53D6CD3}" name="original column name" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{88E31344-DAD1-4075-94A2-061467F1A101}" name="revCOLname" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{C780B9AE-54DD-4980-8518-F6BBF295F1E1}" name="code explained" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00FFE95F-4CC7-402D-8D96-3E414481F1CC}" name="Description" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{949614BD-6B61-455B-8791-0CFC103596BF}" name="notes" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{A68B792C-36B2-432F-AF70-4F5D6B318080}" name="category1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{C0354058-503E-473E-86BA-60DBA86960E9}" name="col" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{13CD49C1-D450-4F95-B72C-5DA387FF12ED}" name="d#" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{AC76382C-DA6F-426D-BE2C-46FB26599C14}" name="O_source" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{38E9FAFF-89BD-497C-81C1-5D030A3F2BFC}" name="oCOL" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{D9B67B41-A299-4A2D-9C97-438AA472D1F1}" name="nCOL" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{23936385-C3BB-4E25-B0BB-6C7FF53D6CD3}" name="original column name" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{88E31344-DAD1-4075-94A2-061467F1A101}" name="revCOLname" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{C780B9AE-54DD-4980-8518-F6BBF295F1E1}" name="code explained" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{00FFE95F-4CC7-402D-8D96-3E414481F1CC}" name="Description" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{949614BD-6B61-455B-8791-0CFC103596BF}" name="notes" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{A68B792C-36B2-432F-AF70-4F5D6B318080}" name="category1" dataDxfId="74"/>
     <tableColumn id="12" xr3:uid="{3D8366EB-45E4-40C3-8AFC-FAC8D8CF4587}" name="done"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4720,18 +4751,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1C94A0C-F639-426D-9348-055FA900C4ED}" name="Table472" displayName="Table472" ref="A1:J36" totalsRowShown="0" headerRowDxfId="109" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1C94A0C-F639-426D-9348-055FA900C4ED}" name="Table472" displayName="Table472" ref="A1:J36" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:J36" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}"/>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{D9EBA975-EBE7-4403-B267-0F124802C83E}" name="d#" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{40AC9AFF-C952-4E05-81A2-3AE9E2EC59E6}" name="O_source" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{28F5351D-9A8A-42AE-B23C-C2D762BD363C}" name="nCOL" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{3886828D-05E9-4A82-86AC-9754AAD79ECA}" name="revCOLname" dataDxfId="104"/>
-    <tableColumn id="1" xr3:uid="{1B362F05-06B6-4726-8A29-6A0CF71455F7}" name="variable_class" dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{69F5D979-6C16-4A08-AF2F-9E18B40E9EFE}" name="variable_type" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{9ACF3583-B0F1-4DDC-9BAF-7B5DBE627ABE}" name="code explained" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{A18684FF-5EDC-4E13-9E73-A8573E509AC1}" name="Description" dataDxfId="100"/>
-    <tableColumn id="11" xr3:uid="{D5958E0F-CC3E-4592-9A70-F24FCA0621E9}" name="category1" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{D9EBA975-EBE7-4403-B267-0F124802C83E}" name="d#" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{40AC9AFF-C952-4E05-81A2-3AE9E2EC59E6}" name="O_source" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{28F5351D-9A8A-42AE-B23C-C2D762BD363C}" name="nCOL" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{3886828D-05E9-4A82-86AC-9754AAD79ECA}" name="revCOLname" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{1B362F05-06B6-4726-8A29-6A0CF71455F7}" name="variable_class" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{69F5D979-6C16-4A08-AF2F-9E18B40E9EFE}" name="variable_type" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{9ACF3583-B0F1-4DDC-9BAF-7B5DBE627ABE}" name="code explained" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{A18684FF-5EDC-4E13-9E73-A8573E509AC1}" name="Description" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{D5958E0F-CC3E-4592-9A70-F24FCA0621E9}" name="category1" dataDxfId="51"/>
     <tableColumn id="4" xr3:uid="{348FF982-4E0C-4D7F-B001-27241E1CD835}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4739,38 +4770,38 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{464ACCA6-AD4B-4037-9DF9-D510A1EBFA7F}" name="Table47" displayName="Table47" ref="A1:I36" totalsRowShown="0" headerRowDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{464ACCA6-AD4B-4037-9DF9-D510A1EBFA7F}" name="Table47" displayName="Table47" ref="A1:I36" totalsRowShown="0" headerRowDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A1:I36" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{1D0847DC-3BE1-4F48-A8C4-1C1A4C51BA84}" name="d#" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{3038D4A1-B9AC-4B60-8CA7-62332101F371}" name="O_source" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{0C6ED7A0-412B-4A8E-9D81-C6D88E35BAE4}" name="nCOL" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{49F39A03-B1AD-404A-987D-96F6B6EE2D1E}" name="revCOLname" dataDxfId="93"/>
-    <tableColumn id="1" xr3:uid="{4A5B2445-3922-40AB-AB3C-C68A879DE966}" name="variable_class" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{0A964BFA-66F3-44EC-BE2B-88DF7F8FCFDA}" name="variable_type" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{671C2724-1F01-456C-A4BA-F0A8D015C377}" name="code explained" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{D5CB7911-EA7B-4AD1-8418-A285A7008D7D}" name="Description" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{93A0645E-77C7-4CDD-A58B-FE4127BF4374}" name="category1" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{1D0847DC-3BE1-4F48-A8C4-1C1A4C51BA84}" name="d#" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{3038D4A1-B9AC-4B60-8CA7-62332101F371}" name="O_source" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{0C6ED7A0-412B-4A8E-9D81-C6D88E35BAE4}" name="nCOL" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{49F39A03-B1AD-404A-987D-96F6B6EE2D1E}" name="revCOLname" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{4A5B2445-3922-40AB-AB3C-C68A879DE966}" name="variable_class" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{0A964BFA-66F3-44EC-BE2B-88DF7F8FCFDA}" name="variable_type" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{671C2724-1F01-456C-A4BA-F0A8D015C377}" name="code explained" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{D5CB7911-EA7B-4AD1-8418-A285A7008D7D}" name="Description" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{93A0645E-77C7-4CDD-A58B-FE4127BF4374}" name="category1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}" name="Table4" displayName="Table4" ref="A2:L37" totalsRowShown="0" headerRowDxfId="72" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}" name="Table4" displayName="Table4" ref="A2:L37" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A2:L37" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0B999307-FBC2-470F-A0B7-4553FAEBF564}" name="col" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{0F717023-D87B-4C36-9C32-2CF74F439A40}" name="d#" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{7E0AC5ED-69EE-4F04-BDB6-7D4B451FD3A6}" name="O_source" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{2A2AE1DA-4BE6-4BFD-9E30-2F3CA689E2F4}" name="oCOL" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{7DFC4F90-FB76-43AF-97BC-4B53E04757E0}" name="nCOL" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{9B3DC1D5-644B-4025-A5F2-07EA429D9C5F}" name="original column name" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{20AA4C53-8CDD-4679-B595-DA449829C838}" name="revCOLname" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{AE9818FB-3B5B-4BBD-9A08-B875DD32D5F3}" name="code explained" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{8A918FDE-E2A9-437B-8B81-17ED7CFA032F}" name="Description" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{7E5FEEA5-B044-4639-9F58-3F47AAE504B7}" name="notes" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{7BE97E77-A8E0-4049-B6B6-741960531E1F}" name="category1" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{0B999307-FBC2-470F-A0B7-4553FAEBF564}" name="col" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{0F717023-D87B-4C36-9C32-2CF74F439A40}" name="d#" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7E0AC5ED-69EE-4F04-BDB6-7D4B451FD3A6}" name="O_source" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2A2AE1DA-4BE6-4BFD-9E30-2F3CA689E2F4}" name="oCOL" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7DFC4F90-FB76-43AF-97BC-4B53E04757E0}" name="nCOL" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{9B3DC1D5-644B-4025-A5F2-07EA429D9C5F}" name="original column name" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{20AA4C53-8CDD-4679-B595-DA449829C838}" name="revCOLname" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{AE9818FB-3B5B-4BBD-9A08-B875DD32D5F3}" name="code explained" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{8A918FDE-E2A9-437B-8B81-17ED7CFA032F}" name="Description" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{7E5FEEA5-B044-4639-9F58-3F47AAE504B7}" name="notes" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7BE97E77-A8E0-4049-B6B6-741960531E1F}" name="category1" dataDxfId="15"/>
     <tableColumn id="12" xr3:uid="{A2756548-6B9B-443B-8484-25F53F4AEA53}" name="done"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4778,25 +4809,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEDED970-9C45-44B3-B2DE-778471CA0049}" name="Table46" displayName="Table46" ref="A1:L36" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEDED970-9C45-44B3-B2DE-778471CA0049}" name="Table46" displayName="Table46" ref="A1:L36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:L36" xr:uid="{409502C7-5036-41C0-BC45-0A9F9C05DB90}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
     <sortCondition ref="L2:L36"/>
     <sortCondition ref="B2:B36"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{60960F08-CC6B-42D1-83AB-3F1A84D059B2}" name="col" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{67913F8C-6D4E-4DE9-956E-2DB2BB9058D1}" name="d#" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{F4AC59B4-E987-4A5C-AF06-842D68750D8B}" name="O_source" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{8A8789E5-CC61-41AF-A77E-6C25EC84E797}" name="oCOL" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{4420D90B-F0C4-4D7F-B89D-8436B03145E0}" name="nCOL" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{B9E12E01-F51F-42AF-AC9F-F495BCFDD2E1}" name="original column name" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{2CC369A7-4E8B-4848-B904-C109D7B7F8BA}" name="revCOLname" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{CE9158EC-8795-4796-A017-7AEF82279D0D}" name="code explained" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{D46D7307-053E-4208-8E78-B723B23C24F8}" name="Description" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{0532A824-C00A-4ADE-9F19-AE0F88AA5B7B}" name="notes" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{F674D56E-B8EC-4FE9-9537-BC25486553B8}" name="category1" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{369022F3-1332-4822-8A8C-D6BD07560598}" name="done" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{60960F08-CC6B-42D1-83AB-3F1A84D059B2}" name="col" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{67913F8C-6D4E-4DE9-956E-2DB2BB9058D1}" name="d#" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F4AC59B4-E987-4A5C-AF06-842D68750D8B}" name="O_source" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8A8789E5-CC61-41AF-A77E-6C25EC84E797}" name="oCOL" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4420D90B-F0C4-4D7F-B89D-8436B03145E0}" name="nCOL" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B9E12E01-F51F-42AF-AC9F-F495BCFDD2E1}" name="original column name" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2CC369A7-4E8B-4848-B904-C109D7B7F8BA}" name="revCOLname" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{CE9158EC-8795-4796-A017-7AEF82279D0D}" name="code explained" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D46D7307-053E-4208-8E78-B723B23C24F8}" name="Description" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0532A824-C00A-4ADE-9F19-AE0F88AA5B7B}" name="notes" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F674D56E-B8EC-4FE9-9537-BC25486553B8}" name="category1" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{369022F3-1332-4822-8A8C-D6BD07560598}" name="done" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5071,7 +5102,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,999 +5117,999 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="78" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="29" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="29" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="79" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="77" t="s">
+      <c r="H23" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="80" t="s">
+      <c r="F26" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H27" s="77" t="s">
+      <c r="H27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>330</v>
       </c>
       <c r="D29" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="G29" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="H29" s="77" t="s">
+      <c r="H29" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="G34" s="77" t="s">
+      <c r="G34" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6220,56 +6251,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E34">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9134,56 +9165,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F36">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10413,56 +10444,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F36">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"interval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"ratio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"continuous"</formula>
     </cfRule>
   </conditionalFormatting>
